--- a/data/balance_sheet/3digits/total/601_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/601_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>601-Radio broadcasting</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>601-Radio broadcasting</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>249143.89138</v>
@@ -1484,38 +934,43 @@
         <v>261011.94039</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>246224.29413</v>
+        <v>246228.73369</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>302097.4504</v>
+        <v>302206.79664</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>372660.4520399999</v>
+        <v>372840.49096</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>368835.99398</v>
+        <v>369265.24645</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>393609.87033</v>
+        <v>400685.7672</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>378876.27882</v>
+        <v>379650.5810299999</v>
       </c>
       <c r="K5" s="32" t="n">
-        <v>419857.1922199999</v>
+        <v>419857.19222</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>426808.99176</v>
+        <v>426882.35107</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>478942.32385</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>482505.8280800001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>515363.359</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>27487.94714</v>
@@ -1524,38 +979,43 @@
         <v>29611.34797</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>41381.29271</v>
+        <v>41381.43603</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>46940.32148</v>
+        <v>47032.71353</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>67475.99118</v>
+        <v>67577.19581999999</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>62489.54623000001</v>
+        <v>62691.47209</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>73639.17989</v>
+        <v>74616.66018000001</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>52714.21963</v>
+        <v>52713.62877</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>51870.26171</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>49045.66548</v>
+        <v>49118.73479</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>54829.40998</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>55265.48424</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>66444.91</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>22767.20147</v>
@@ -1564,38 +1024,43 @@
         <v>24515.50183</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>30129.0343</v>
+        <v>30129.17762</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>36712.6731</v>
+        <v>36804.56314</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>42038.17442</v>
+        <v>42136.82837999999</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>38446.85912000001</v>
+        <v>38646.47471</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>38289.92441000001</v>
+        <v>38688.44503</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>32057.56746</v>
+        <v>32051.82531</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>31008.02541</v>
+        <v>31008.02540999999</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>26426.77008</v>
+        <v>26499.83939</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>23230.05381</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>23621.90574</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>25177.544</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1325.81007</v>
@@ -1616,10 +1081,10 @@
         <v>9246.88689</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>13632.75123</v>
+        <v>13814.50566</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>9739.906210000001</v>
+        <v>9739.906209999999</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>9438.202539999998</v>
@@ -1630,36 +1095,41 @@
       <c r="M8" s="22" t="n">
         <v>22907.11635</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>16887.474</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>3392.62816</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>3753.24324</v>
+        <v>3753.243239999999</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>8185.64694</v>
+        <v>8185.646940000001</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>6963.31567</v>
+        <v>6963.81768</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>21496.24168</v>
+        <v>21498.79236</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>14759.50209</v>
+        <v>14761.81236</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>22033.52839</v>
+        <v>22430.73363</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>10864.09836</v>
+        <v>10869.24965</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>12613.02485</v>
@@ -1668,14 +1138,19 @@
         <v>12445.99308</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>11784.47205</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>11898.69438</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>25750.075</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>20.57714</v>
@@ -1708,14 +1183,19 @@
         <v>1220.13364</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>3122.27232</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>3192.27232</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>1398.452</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>22.88458</v>
@@ -1730,7 +1210,7 @@
         <v>35.9358</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>48.50800999999999</v>
+        <v>48.50801</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>98.19914999999999</v>
@@ -1750,18 +1230,23 @@
       <c r="M11" s="22" t="n">
         <v>30.04009</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>28.269</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>454.57895</v>
       </c>
       <c r="D12" s="23" t="n">
-        <v>786.1250299999999</v>
+        <v>786.12503</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>3462.83683</v>
@@ -1776,7 +1261,7 @@
         <v>4251.70788</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>113.32172</v>
+        <v>3446.63851</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>2721.62473</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2167.66837</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>343.148</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>60</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1177.66837</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>296.79743</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>97.78152</v>
@@ -1936,7 +1441,7 @@
         <v>4244.20703</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>35.16162</v>
+        <v>3368.47841</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>2450</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>343.148</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>131051.07116</v>
@@ -2010,16 +1525,16 @@
         <v>175352.17568</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>211463.77637</v>
+        <v>211520.74967</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>201898.50162</v>
+        <v>201934.02934</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>220555.88979</v>
+        <v>223166.71305</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>211402.54891</v>
+        <v>212168.38154</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>239861.90756</v>
@@ -2028,14 +1543,19 @@
         <v>245798.80855</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>287037.65662</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>287406.4913</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>272302.556</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>125355.53219</v>
@@ -2050,16 +1570,16 @@
         <v>170754.11125</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>204256.53349</v>
+        <v>204313.50679</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>187553.4347</v>
+        <v>187588.96242</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>205494.10264</v>
+        <v>208104.9259</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>203486.27247</v>
+        <v>204250.6051</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>232034.88821</v>
@@ -2068,17 +1588,22 @@
         <v>239355.12176</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>253407.9374</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>253882.76448</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>251286.863</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
-        <v>4766.117819999999</v>
+        <v>4766.11782</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>2237.80742</v>
@@ -2108,14 +1633,19 @@
         <v>4309.2327</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>31513.0151</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>31553.0151</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>17958.443</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>137.76673</v>
@@ -2219,23 +1759,28 @@
         <v>522.59821</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>578.3837</v>
+        <v>579.8837</v>
       </c>
       <c r="K23" s="22" t="n">
-        <v>616.1654299999999</v>
+        <v>616.16543</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>731.2157099999999</v>
+        <v>731.2157100000001</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>1213.98146</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>797.7819500000001</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>2395.433</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>570.50499</v>
@@ -2244,7 +1789,7 @@
         <v>1043.02615</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>555.3491700000001</v>
+        <v>555.34917</v>
       </c>
       <c r="F24" s="21" t="n">
         <v>927.9437899999999</v>
@@ -2262,20 +1807,25 @@
         <v>608.50713</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>861.6364599999999</v>
+        <v>861.6364600000001</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>1174.98172</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>473.16581</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>743.37292</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>292.957</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>965.3708399999999</v>
@@ -2299,7 +1849,7 @@
         <v>20083.02622</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>19928.44424</v>
+        <v>20306.77969</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>18371.89558</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>10211.36262</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>3128.673</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>744.2214099999999</v>
@@ -2339,7 +1894,7 @@
         <v>18049.27012</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>17912.2337</v>
+        <v>18290.56915</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>17999.34506</v>
@@ -2350,18 +1905,23 @@
       <c r="M26" s="22" t="n">
         <v>9781.805769999999</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>2759.813</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>55934.93499999999</v>
+        <v>55934.935</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>60948.17538</v>
+        <v>60948.17537999999</v>
       </c>
       <c r="E27" s="23" t="n">
         <v>44366.54037</v>
@@ -2370,10 +1930,10 @@
         <v>39489.61463</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>42858.81592</v>
+        <v>42859.2445</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>47148.58932000001</v>
+        <v>47289.1128</v>
       </c>
       <c r="I27" s="23" t="n">
         <v>48782.12893</v>
@@ -2388,14 +1948,19 @@
         <v>79090.85784</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>87182.28487</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>87795.37406</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>72647.026</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>15262.96144</v>
@@ -2410,10 +1975,10 @@
         <v>8237.003570000001</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>8545.143779999999</v>
+        <v>8545.14378</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>12860.47837</v>
+        <v>12999.40333</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>14738.57252</v>
@@ -2428,14 +1993,19 @@
         <v>17165.55312</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>20312.15429</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>20762.15429</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>30155.465</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>54.71252</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>735.967</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>249.54868</v>
@@ -2508,14 +2083,19 @@
         <v>205.68925</v>
       </c>
       <c r="M30" s="22" t="n">
-        <v>8.189249999999999</v>
-      </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+        <v>158.18925</v>
+      </c>
+      <c r="N30" s="22" t="n">
+        <v>388.189</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>44.54064</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>147.17472</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>157.169</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>40323.17172</v>
@@ -2570,32 +2155,37 @@
         <v>30699.10247</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>33745.45842</v>
+        <v>33745.887</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>34151.3467</v>
+        <v>34152.94522</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>33817.21565999999</v>
+        <v>33817.21566</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>49268.28981</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>54980.34214000001</v>
+        <v>54980.34214</v>
       </c>
       <c r="L32" s="22" t="n">
         <v>61536.99665</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>66669.76661000001</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>66682.85579999999</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>41210.236</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>5026.47089</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>5026.47089</v>
@@ -2710,33 +2310,38 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>6690.183379999999</v>
+        <v>6690.18338</v>
       </c>
       <c r="D36" s="23" t="n">
         <v>7581.77136</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>8921.976079999999</v>
+        <v>8921.97608</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>12190.86418</v>
+        <v>12201.36418</v>
       </c>
       <c r="G36" s="23" t="n">
         <v>16322.84899</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>21179.62662</v>
+        <v>21183.84662</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>19919.80996</v>
+        <v>19923.30996</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>13085.38792</v>
@@ -2748,14 +2353,19 @@
         <v>15606.884</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>15103.22484</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>15821.93888</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>50117.366</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>115.22692</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>1486.45961</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>1330.249</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>2821.07945</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>1238.8528</v>
@@ -2887,7 +2512,7 @@
         <v>1380.76537</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>1273.029</v>
+        <v>1283.529</v>
       </c>
       <c r="G40" s="22" t="n">
         <v>695.92448</v>
@@ -2896,7 +2521,7 @@
         <v>875.94872</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>1363.23935</v>
+        <v>1366.73935</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>1731.29837</v>
@@ -2908,14 +2533,19 @@
         <v>3073.28422</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>2895.65074</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>2898.79904</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>3006.753</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1302.23173</v>
@@ -2933,10 +2563,10 @@
         <v>2367.28974</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>4239.94896</v>
+        <v>4243.66896</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>4143.55311</v>
+        <v>4143.553110000001</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>1345.61396</v>
@@ -2948,14 +2578,19 @@
         <v>770.11787</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>633.28445</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>657.83719</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>33743.651</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>1830.58727</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>3043.37975</v>
@@ -3007,13 +2647,13 @@
         <v>4973.68317</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>7634.759729999999</v>
+        <v>7634.759730000001</v>
       </c>
       <c r="G43" s="22" t="n">
         <v>13124.26513</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>15922.41581</v>
+        <v>15922.91581</v>
       </c>
       <c r="I43" s="22" t="n">
         <v>13720.18644</v>
@@ -3025,17 +2665,22 @@
         <v>8947.42582</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>9960.021780000001</v>
+        <v>9960.021779999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>10087.83004</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>10778.84304</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>12035.366</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>41.68861</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>93.77997999999999</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>94.661</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>12.30755</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>93.77997999999999</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>93.78</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>29.38106</v>
@@ -3190,33 +2850,38 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>15089.53279</v>
       </c>
       <c r="D48" s="46" t="n">
-        <v>8543.194059999998</v>
+        <v>8543.19406</v>
       </c>
       <c r="E48" s="46" t="n">
         <v>9137.773590000001</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>9391.35644</v>
+        <v>9394.68144</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>13038.01981</v>
+        <v>13038.26839</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>13563.57076</v>
+        <v>13563.81934</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>11839.89617</v>
+        <v>11840.26339</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>15823.84142</v>
@@ -3228,94 +2893,109 @@
         <v>13606.17607</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>12210.57695</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>13568.1484</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>31071.107</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>2206.34681</v>
       </c>
       <c r="D49" s="22" t="n">
-        <v>3004.74635</v>
+        <v>3004.746349999999</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>3553.432269999999</v>
+        <v>3553.43227</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>4066.75045</v>
+        <v>4070.07545</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>5634.28664</v>
+        <v>5634.53522</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>6593.94854</v>
+        <v>6594.19712</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>5319.1198</v>
+        <v>5319.368379999999</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>9460.305849999999</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>8998.023670000002</v>
+        <v>8998.02367</v>
       </c>
       <c r="L49" s="22" t="n">
         <v>6762.38529</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>6051.80008</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>7406.90643</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>21481.342</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>12883.18598</v>
       </c>
       <c r="D50" s="22" t="n">
-        <v>5538.447709999999</v>
+        <v>5538.44771</v>
       </c>
       <c r="E50" s="22" t="n">
         <v>5584.34132</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>5324.605989999999</v>
+        <v>5324.60599</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>7403.73317</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>6969.622219999999</v>
+        <v>6969.622220000001</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>6520.77637</v>
+        <v>6520.89501</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>6363.535569999999</v>
+        <v>6363.53557</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>7096.252820000001</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>6843.790779999999</v>
+        <v>6843.79078</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>6158.77687</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>6161.241970000001</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>9589.764999999999</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>12393.95435</v>
@@ -3324,78 +3004,88 @@
         <v>11857.37408</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>12633.1337</v>
+        <v>12637.42994</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>14336.34029</v>
+        <v>14339.46948</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>16891.01587</v>
+        <v>16912.19969</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>17805.97217</v>
+        <v>17852.779</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>18665.86389</v>
+        <v>18816.2732</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>18891.55056</v>
+        <v>18900.611</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>18537.11717</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>20614.37747</v>
+        <v>20614.66747</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>20317.72224</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>20386.94285</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>22342.585</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>10225.3438</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>9853.967149999999</v>
+        <v>9853.96715</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>10775.4097</v>
+        <v>10779.70594</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>11977.8098</v>
+        <v>11980.87746</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>14198.34774</v>
+        <v>14219.47003</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>15570.8263</v>
+        <v>15611.6884</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>16570.07662</v>
+        <v>16646.68023</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>15103.96313</v>
+        <v>15103.73507</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>15171.4394</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>16220.82826</v>
+        <v>16221.03871</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>16882.56005</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>16915.53851</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>18893.786</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>40.48465</v>
@@ -3413,13 +3103,13 @@
         <v>39.63437</v>
       </c>
       <c r="H53" s="21" t="n">
-        <v>14.96675</v>
+        <v>15.11995</v>
       </c>
       <c r="I53" s="22" t="n">
         <v>26.53917</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>48.37287000000001</v>
+        <v>48.37286999999999</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>13.88435</v>
@@ -3428,14 +3118,19 @@
         <v>39.42646</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>80.23696</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>83.37596000000001</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>12.062</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>7.486050000000001</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>0.61666</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>249.79857</v>
@@ -3487,16 +3187,16 @@
         <v>180.35455</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>898.9054199999999</v>
+        <v>898.9669500000001</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>1161.92285</v>
+        <v>1161.98438</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>890.62847</v>
+        <v>890.92</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>833.7763100000001</v>
+        <v>899.7809299999999</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>2281.33934</v>
@@ -3505,17 +3205,22 @@
         <v>1874.05671</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>2024.38275</v>
+        <v>2024.4623</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1353.56876</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1386.67191</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>619.6900000000001</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1775.37896</v>
@@ -3533,13 +3238,13 @@
         <v>1244.60389</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>1138.00029</v>
+        <v>1143.50029</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>1124.41218</v>
+        <v>1132.21326</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>1168.45808</v>
+        <v>1177.74658</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>1133.26481</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>1661.62686</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>2479.214</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>95.46231</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>315.91888</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>297.253</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>23.19405</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>23.194</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>1e-05</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>2e-05</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>15.867</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>152237.98001</v>
@@ -3723,38 +3453,43 @@
         <v>143684.745</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>147299.44166</v>
+        <v>147333.55283</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>165673.61416</v>
+        <v>165942.2542</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>187566.84152</v>
+        <v>187903.02054</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>209172.29231</v>
+        <v>209633.55385</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>213866.31872</v>
+        <v>220247.89102</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>200695.7423</v>
+        <v>205615.99993</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>199053.96573</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>196660.85314</v>
+        <v>196661.45314</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>178800.06096</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>179656.27693</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>177837.615</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>482.30615</v>
@@ -3766,13 +3501,13 @@
         <v>1657.46487</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>847.2513500000001</v>
+        <v>847.25135</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>651.74221</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>8149.42045</v>
+        <v>8149.420450000001</v>
       </c>
       <c r="I62" s="36" t="n">
         <v>7251.48717</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>629.48054</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>729.741</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>12.5145</v>
@@ -3812,7 +3552,7 @@
         <v>20.64347</v>
       </c>
       <c r="H63" s="21" t="n">
-        <v>7580.1823</v>
+        <v>7580.182299999999</v>
       </c>
       <c r="I63" s="22" t="n">
         <v>6502.2679</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>130.86666</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>130.867</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>198.419</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,15 +3704,20 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>469.7916499999999</v>
+        <v>469.79165</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>502.36243</v>
@@ -3966,7 +3726,7 @@
         <v>1657.46487</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>802.2532300000001</v>
+        <v>802.25323</v>
       </c>
       <c r="G67" s="22" t="n">
         <v>629.91874</v>
@@ -3975,13 +3735,13 @@
         <v>568.0581500000001</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>748.03927</v>
+        <v>748.0392699999999</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>777.1004499999999</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>858.02203</v>
+        <v>858.0220300000002</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>751.49349</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>328.61388</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>400.455</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,24 +3794,29 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
-        <v>9312.625010000002</v>
+        <v>9312.62501</v>
       </c>
       <c r="D69" s="36" t="n">
-        <v>8130.596229999999</v>
+        <v>8130.59623</v>
       </c>
       <c r="E69" s="36" t="n">
         <v>8189.05209</v>
       </c>
       <c r="F69" s="37" t="n">
-        <v>6635.8153</v>
+        <v>6635.815300000001</v>
       </c>
       <c r="G69" s="36" t="n">
         <v>6120.18663</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>10721.64761</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>8490.963</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>4550.077780000001</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>1980.28501</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>2291.146</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>1</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>3964.8855</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>3966.1355</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>3966.136</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>796.66173</v>
@@ -4246,7 +4041,7 @@
         <v>496.93024</v>
       </c>
       <c r="F74" s="21" t="n">
-        <v>729.2174699999999</v>
+        <v>729.21747</v>
       </c>
       <c r="G74" s="22" t="n">
         <v>612.3515</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>4775.2271</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>2233.681</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,15 +4154,20 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
-        <v>9525.24379</v>
+        <v>9525.243789999999</v>
       </c>
       <c r="D77" s="23" t="n">
         <v>9985.83325</v>
@@ -4375,10 +4185,10 @@
         <v>40810.6372</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>43286.42167</v>
+        <v>43317.69973</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>40244.49735000001</v>
+        <v>44994.49735000001</v>
       </c>
       <c r="K77" s="23" t="n">
         <v>40156.99735000001</v>
@@ -4387,14 +4197,19 @@
         <v>35406.99735000001</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>35440.45873999999</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>35440.45874</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>30933.644</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.00763</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>20753.16139</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>20753.161</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>9529.388660000001</v>
@@ -4495,10 +4320,10 @@
         <v>18357.65737</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>21262.679</v>
+        <v>21293.95706</v>
       </c>
       <c r="J80" s="21" t="n">
-        <v>13307.65737</v>
+        <v>18057.65737</v>
       </c>
       <c r="K80" s="22" t="n">
         <v>13222.65737</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>13197.95737</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>9577.308000000001</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>4.1525</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>361.275</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>361.275</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>1854.31498</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>954.04</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>3.7</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>5.134060000000001</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,52 +4649,62 @@
       <c r="M87" s="22" t="n">
         <v>5.134060000000001</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>38464.46497</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>39863.11663999999</v>
+        <v>39863.11664</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>43227.18479</v>
+        <v>43257.97096</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>45749.84971000001</v>
+        <v>46015.51668</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>51747.93670000001</v>
+        <v>52077.47977</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>55899.98336999999</v>
+        <v>56337.60586999999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>61637.57199</v>
+        <v>62280.2434</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>56250.05117</v>
+        <v>56385.54452</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>59304.87986000001</v>
+        <v>59304.87986</v>
       </c>
       <c r="L88" s="23" t="n">
         <v>62012.02857</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>62427.30466</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>63306.35372</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>64280.385</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>4125.57667</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>2944.55673</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>2624.607</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>87.67148</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>78.36427</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>94.67100000000001</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1075.40222</v>
@@ -4926,16 +4806,16 @@
         <v>1246.06278</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>1299.4899</v>
+        <v>1343.06278</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>2221.30764</v>
+        <v>2264.88052</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>2459.253999999999</v>
+        <v>2502.826880000001</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>3298.39994</v>
+        <v>3421.93892</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>1743.63892</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>4516.234060000001</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>6573.232</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>23672.0983</v>
@@ -4963,22 +4848,22 @@
         <v>24868.77354</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>25532.97055</v>
+        <v>25532.97055000001</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>27744.93249</v>
+        <v>27757.36489</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>29180.10638</v>
+        <v>29230.19289</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>31344.93724</v>
+        <v>31400.93376</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>35303.4175</v>
+        <v>35457.25986</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>33319.43866</v>
+        <v>33454.93201</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>33488.98035</v>
@@ -4987,38 +4872,43 @@
         <v>34999.19177</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>35431.38372000001</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>35612.15491</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>36408.055</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>5855.79508</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>5895.867470000001</v>
+        <v>5895.86747</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>6646.36859</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>6647.49934</v>
+        <v>6785.60948</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>7833.16976</v>
+        <v>7973.32736</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>9685.802</v>
+        <v>9834.85138</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>9997.05026</v>
+        <v>10160.20786</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>9745.275239999999</v>
+        <v>9745.275240000001</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>10675.88138</v>
@@ -5027,54 +4917,64 @@
         <v>11047.23214</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>11743.35992</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>11780.21642</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>11321.792</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>43048.52005</v>
+        <v>43048.52005000001</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>45011.07823</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>50342.44037999999</v>
+        <v>50456.90708</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>52281.86485</v>
+        <v>52653.00447000001</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>56039.55571000001</v>
+        <v>56478.79379</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>58817.05220000001</v>
+        <v>59486.44861000001</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>63560.69949</v>
+        <v>64153.48779</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>61646.65501</v>
+        <v>61646.65500999999</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>65311.72323999999</v>
+        <v>65311.72324</v>
       </c>
       <c r="L94" s="22" t="n">
         <v>67713.68759</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>67975.55456999999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>69115.38026999999</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>66303.86</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1078.75157</v>
@@ -5083,16 +4983,16 @@
         <v>1068.77683</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>511.92527</v>
+        <v>511.9252700000001</v>
       </c>
       <c r="F95" s="21" t="n">
-        <v>533.5513300000001</v>
+        <v>533.55133</v>
       </c>
       <c r="G95" s="22" t="n">
         <v>536.3020300000001</v>
       </c>
       <c r="H95" s="21" t="n">
-        <v>534.7774199999999</v>
+        <v>534.77742</v>
       </c>
       <c r="I95" s="22" t="n">
         <v>524.17713</v>
@@ -5101,7 +5001,7 @@
         <v>510.42024</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>514.59594</v>
+        <v>514.5959399999999</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>530.7961700000001</v>
@@ -5109,58 +5009,68 @@
       <c r="M95" s="22" t="n">
         <v>674.0973399999999</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>661.9640000000001</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>41073.85962999999</v>
+        <v>41073.85963000001</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>43062.59676000001</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>45965.14976000001</v>
+        <v>46048.83029</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>47668.21092</v>
+        <v>47967.79899</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>49482.68376000001</v>
+        <v>49826.19576</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>52380.66551</v>
+        <v>52861.0582</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>55804.92894</v>
+        <v>56195.58476999999</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>54707.14375</v>
       </c>
       <c r="K96" s="22" t="n">
-        <v>58055.43295999999</v>
+        <v>58055.43296000001</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>61655.80804</v>
+        <v>61655.80803999999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>62483.11992</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>62961.52425</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>61007.785</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
-        <v>34.80589000000001</v>
+        <v>34.80589</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>398.47149</v>
+        <v>398.4714900000001</v>
       </c>
       <c r="E97" s="22" t="n">
         <v>491.28847</v>
@@ -5175,7 +5085,7 @@
         <v>353.2886</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>535.5060900000001</v>
+        <v>535.50609</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>229.40634</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>1384.38182</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>1024.441</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>559.7033399999999</v>
@@ -5229,15 +5144,20 @@
       <c r="M98" s="22" t="n">
         <v>162.49215</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>275.548</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>90094.61922000001</v>
+        <v>90094.61921999999</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>80580.42366</v>
@@ -5246,19 +5166,19 @@
         <v>76784.33078999999</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>91039.08915</v>
+        <v>91041.92353</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>96842.68882</v>
+        <v>96848.501</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>89640.13969999999</v>
+        <v>89661.97921999999</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>84743.54111000001</v>
+        <v>90432.02984</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>80922.52411000001</v>
+        <v>80957.28839</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>75901.32356</v>
@@ -5267,38 +5187,43 @@
         <v>66449.11319</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>56599.49329000001</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>56423.66854</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>56639.45</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>83428.91591</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>86425.35270999998</v>
+        <v>86425.35271000001</v>
       </c>
       <c r="E100" s="22" t="n">
         <v>87953.42111</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>105561.18332</v>
+        <v>105564.6399</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>117528.10415</v>
+        <v>117531.56073</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>117035.18091</v>
+        <v>117048.85806</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>128289.95395</v>
+        <v>128696.58551</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>126952.14446</v>
+        <v>126986.90874</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>129381.73757</v>
@@ -5307,14 +5232,19 @@
         <v>127414.41673</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>122140.32597</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>121925.37868</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>125720.052</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>15009.61352</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>15946.94403</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>15939.614</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>3888.12084</v>
@@ -5387,14 +5322,19 @@
         <v>3110.28942</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>3114.49772</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>3121.72112</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>3116.521</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>4.2783</v>
@@ -5429,18 +5369,23 @@
       <c r="M103" s="22" t="n">
         <v>8.520440000000001</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>8160.246029999999</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>8771.308199999999</v>
+        <v>8771.308200000001</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>9917.197900000001</v>
@@ -5449,13 +5394,13 @@
         <v>9541.525449999999</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>10655.89053</v>
+        <v>10658.86833</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>10976.93069</v>
+        <v>11009.47406</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>11761.60332</v>
+        <v>11786.14669</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>11197.8181</v>
@@ -5467,14 +5412,19 @@
         <v>12827.45383</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>12486.85693</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>12517.55108</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>12256.93</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>18635.6258</v>
@@ -5495,7 +5445,7 @@
         <v>21356.60004</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>16258.55594</v>
+        <v>21616.56588</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>20764.26662</v>
@@ -5507,38 +5457,43 @@
         <v>20077.23338</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>20246.78717</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>20250.22193</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>19989.135</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>39451.07986999999</v>
+        <v>39451.07987</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>52473.83747999999</v>
+        <v>52473.83748</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>60102.69787</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>63890.60672</v>
+        <v>63891.22891999999</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>72027.90238</v>
+        <v>72028.52458</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>78870.22137999999</v>
+        <v>78894.60238</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>90815.31366</v>
+        <v>90916.0098</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>97453.11237999999</v>
+        <v>97453.11238000001</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>106512.9389</v>
@@ -5547,14 +5502,19 @@
         <v>113383.28018</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>117694.50177</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>117696.73154</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>120741.689</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>418.89869</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>350.0628</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>350.367</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>48.05</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>102.40907</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>93.10599999999999</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>18.74634</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>18.746</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>3.04927</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>48.05</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>86.712</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>77.40900000000001</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2846.03796</v>
@@ -5843,19 +5838,19 @@
         <v>3114.14559</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>5062.201309999999</v>
+        <v>5065.52631</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>5796.84481</v>
+        <v>5796.9835</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>8236.158089999999</v>
+        <v>8236.98186</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>7825.03775</v>
+        <v>7826.83727</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>10320.2245</v>
+        <v>10339.3586</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>10446.79481</v>
@@ -5864,17 +5859,22 @@
         <v>10044.4854</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>8309.339090000001</v>
+        <v>8309.93909</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>7681.840020000001</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>7834.65168</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>11976.412</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2582.03445</v>
@@ -5883,19 +5883,19 @@
         <v>3108.58836</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>5056.64408</v>
+        <v>5059.96908</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>5791.28758</v>
+        <v>5791.426270000001</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>8222.85662</v>
+        <v>8223.68039</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>7819.480519999999</v>
+        <v>7821.28004</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>10314.66727</v>
+        <v>10333.80137</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>10440.53434</v>
@@ -5904,17 +5904,22 @@
         <v>10038.01158</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>8302.594570000001</v>
+        <v>8303.19457</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>7674.528240000001</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>7827.3399</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>11973.673</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>264.00351</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>7.31178</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>2.739</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>1464.63291</v>
@@ -5963,7 +5973,7 @@
         <v>1460.2172</v>
       </c>
       <c r="E117" s="23" t="n">
-        <v>601.61364</v>
+        <v>601.6136400000001</v>
       </c>
       <c r="F117" s="33" t="n">
         <v>582.4216700000001</v>
@@ -5987,14 +5997,19 @@
         <v>5711.053400000001</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>5197.427030000001</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>5197.607029999999</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>4693.914</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>1.76117</v>
@@ -6027,14 +6042,19 @@
         <v>1.89893</v>
       </c>
       <c r="M118" s="22" t="n">
-        <v>0.91569</v>
-      </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+        <v>1.09569</v>
+      </c>
+      <c r="N118" s="22" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>15.825</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>10.01491</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>3.86741</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>2.919</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>1452.85683</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>564.9160900000001</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>599.888</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6341,7 +6396,7 @@
         <v>4828.15787</v>
       </c>
       <c r="K126" s="22" t="n">
-        <v>4108.242130000001</v>
+        <v>4108.24213</v>
       </c>
       <c r="L126" s="22" t="n">
         <v>5142.78756</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>4627.72784</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>4074.186</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>401381.87139</v>
@@ -6363,35 +6423,38 @@
         <v>404696.68539</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>393523.7357899999</v>
+        <v>393562.28652</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>467771.0645600001</v>
+        <v>468149.05084</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>560227.2935599999</v>
+        <v>560743.5115</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>578008.28629</v>
+        <v>578898.8003000001</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>607476.1890499999</v>
+        <v>620933.6582199999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>579572.02112</v>
+        <v>585266.5809600001</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>618911.15795</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>623469.8449</v>
+        <v>623543.8042100001</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>657742.3848100001</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>662162.1050100001</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>693200.974</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>601-Radio broadcasting</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>294038.42206</v>
@@ -6495,38 +6572,43 @@
         <v>291271.93839</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>212928.76434</v>
+        <v>212942.14897</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>262364.77807</v>
+        <v>262545.24721</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>327986.31456</v>
+        <v>328317.19776</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>350764.6249400001</v>
+        <v>352206.20749</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>350070.11233</v>
+        <v>360536.01602</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>359379.7794400001</v>
+        <v>361174.03248</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>402503.85339</v>
+        <v>402503.8533900001</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>425208.91549</v>
+        <v>425251.04646</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>453931.2766</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>456667.98653</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>466970.855</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>29016.98747</v>
@@ -6547,7 +6629,7 @@
         <v>36276.50724</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>38741.23741</v>
+        <v>38741.23740999999</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>29758.90637</v>
@@ -6559,20 +6641,25 @@
         <v>42143.41871</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>45709.66051000001</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>45795.08349</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>31656.501</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>13663.678</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>88316.24286</v>
+        <v>88316.24286000001</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>13216.74157</v>
@@ -6599,14 +6686,19 @@
         <v>21359.99708</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>31861.39057</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>31946.81355</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>22362.955</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1908.08024</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>113.44427</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>5116.490299999999</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>501.44783</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>2039.49</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>8442.183199999999</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>13346.82211</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>7254.056</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>75299.9231</v>
@@ -6935,22 +7067,22 @@
         <v>62347.60948000001</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>77089.3342</v>
+        <v>77089.33419999998</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>105386.84403</v>
+        <v>105389.19603</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>132982.44941</v>
+        <v>133078.38438</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>150305.87268</v>
+        <v>150523.34712</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>144286.43269</v>
+        <v>153229.20328</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>142923.63613</v>
+        <v>143192.56065</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>163304.38891</v>
@@ -6959,14 +7091,19 @@
         <v>163131.78493</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>189592.56659</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>190373.9375</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>203603.722</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>69099.27266</v>
@@ -6978,19 +7115,19 @@
         <v>73547.54790999999</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>100102.40017</v>
+        <v>100104.75217</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>125568.43448</v>
+        <v>125664.36945</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>143062.70418</v>
+        <v>143280.17862</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>134887.55707</v>
+        <v>143787.18076</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>137980.26572</v>
+        <v>138239.19024</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>156407.51256</v>
@@ -6999,17 +7136,22 @@
         <v>148949.26353</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>139649.14075</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>140325.51166</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>160599.905</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>5178.983129999999</v>
+        <v>5178.98313</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>3070.48859</v>
@@ -7039,14 +7181,19 @@
         <v>11867.13544</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>47400.54381</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>47505.54381</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>39469.934</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>31.4962</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>34.304</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1021.66731</v>
@@ -7147,10 +7304,10 @@
         <v>4710.12321</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>6569.59981</v>
+        <v>6612.74671</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>1064.44647</v>
+        <v>1074.44647</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>1316.27828</v>
@@ -7161,12 +7318,17 @@
       <c r="M148" s="25" t="n">
         <v>2511.38583</v>
       </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+      <c r="N148" s="25" t="n">
+        <v>3499.579</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>32370.47923</v>
@@ -7175,38 +7337,43 @@
         <v>35020.75017</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>35599.82944000001</v>
+        <v>35612.50546</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>49787.1547</v>
+        <v>49898.72835</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>57735.14404</v>
+        <v>57871.33966000001</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>62982.2215</v>
+        <v>63482.16879</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>58768.55480000001</v>
+        <v>59579.0665</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>63111.37789</v>
+        <v>63211.27237</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>70717.02187</v>
+        <v>70717.02187000001</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>97225.2876</v>
+        <v>97225.78641999999</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>96452.33266000001</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>97073.16674</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>92408.751</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>14302.48034</v>
@@ -7215,22 +7382,22 @@
         <v>14126.91472</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>18462.18321</v>
+        <v>18474.85923</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>26559.75739</v>
+        <v>26671.33104</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>24345.93648</v>
+        <v>24482.1321</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>23940.84256</v>
+        <v>24252.49549</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>30759.04152</v>
+        <v>31021.90459</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>37233.77105999999</v>
+        <v>37233.77106</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>38815.17503</v>
@@ -7239,14 +7406,19 @@
         <v>52326.33768</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>52084.76202</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>52649.8567</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>63372.913</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>2.63725</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>7092.62716</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>281.65926</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>2078.13323</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>1674.743</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1086.92336</v>
@@ -7344,13 +7526,13 @@
         <v>1895.73257</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>1870.19212</v>
+        <v>2036.85501</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>2328.22828</v>
+        <v>2714.37344</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>3633.6466</v>
+        <v>3733.54108</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>4571.41543</v>
@@ -7359,14 +7541,19 @@
         <v>6073.51554</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>5031.991730000001</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>5067.407310000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>6149.208</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>16696.77902</v>
@@ -7384,10 +7571,10 @@
         <v>28440.84115</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>32122.07369</v>
+        <v>32143.70516</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>20290.86658</v>
+        <v>20452.37005</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>17198.50589</v>
@@ -7396,17 +7583,22 @@
         <v>21182.32807</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>31086.73692</v>
+        <v>31087.23574</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>30164.81852</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>30185.14234</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>21211.887</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,21 +7633,26 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>73803.78450000001</v>
+        <v>73803.78449999999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>6172.996810000001</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>3785.926219999999</v>
+        <v>3785.92622</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>6693.91797</v>
@@ -7467,10 +7664,10 @@
         <v>9686.436250000001</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>12842.00867</v>
+        <v>12853.23334</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>13455.79381</v>
+        <v>14723.69381</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>13363.75015</v>
@@ -7479,14 +7676,19 @@
         <v>10759.19459</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>9531.654339999999</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>10008.37433</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>5601.458</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>2421.66138</v>
@@ -7498,7 +7700,7 @@
         <v>3645.48708</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>6660.076970000001</v>
+        <v>6660.07697</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>7714.973940000001</v>
@@ -7507,10 +7709,10 @@
         <v>9661.04125</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>12815.64357</v>
+        <v>12826.86824</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>13100.31945</v>
+        <v>14368.21945</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>13234.62024</v>
@@ -7519,14 +7721,19 @@
         <v>10620.25468</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>9474.654339999999</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>9951.374330000001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>5544.458</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>71382.12312</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>57</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>16430.73824</v>
@@ -7695,78 +7922,88 @@
         <v>20548.02674</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>23597.69594</v>
+        <v>23598.40455</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>24672.56286</v>
+        <v>24737.29635</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>29348.96167</v>
+        <v>29435.43722</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>33525.49448</v>
+        <v>34245.66958</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>40416.62958000001</v>
+        <v>41087.21762</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>48270.04565</v>
+        <v>48367.63507000001</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>51045.61875</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>47089.53312</v>
+        <v>47131.08572</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>49702.7444</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>50449.82368</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>58164.249</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>4110.5008</v>
+        <v>4110.500800000001</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>4800.7767</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>6436.27615</v>
+        <v>6436.646849999999</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>6062.0792</v>
+        <v>6096.84756</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>7904.25711</v>
+        <v>7941.73559</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>8595.38608</v>
+        <v>8724.824430000001</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>12609.60944</v>
+        <v>12801.23774</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>9169.515019999999</v>
+        <v>9246.55551</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>11639.4148</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>11842.64095</v>
+        <v>11864.37876</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>14316.73391</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>14710.28828</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>14774.439</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1763.34467</v>
@@ -7775,38 +8012,43 @@
         <v>2146.34192</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>2500.1355</v>
+        <v>2500.47341</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>2650.57438</v>
+        <v>2680.53951</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>2907.60248</v>
+        <v>2941.5422</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>2927.79753</v>
+        <v>3015.31417</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>3986.00479</v>
+        <v>4175.66232</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>3887.47016</v>
+        <v>3920.04554</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>5095.26058</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>6304.678190000001</v>
+        <v>6324.492979999999</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>7343.366410000001</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>7634.66068</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>10065.678</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>10441.13695</v>
@@ -7821,16 +8063,16 @@
         <v>15819.53712</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>18384.12568</v>
+        <v>18399.18303</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>21842.52918</v>
+        <v>22345.74929</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>23619.73956</v>
+        <v>23909.04177</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>29351.35264</v>
+        <v>29339.32619</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>27901.50499</v>
@@ -7839,14 +8081,19 @@
         <v>28872.37201</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>27964.83089</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>28027.06153</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>33208.19</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>115.75582</v>
@@ -7873,7 +8120,7 @@
         <v>5861.70783</v>
       </c>
       <c r="K166" s="22" t="n">
-        <v>6409.43838</v>
+        <v>6409.438379999999</v>
       </c>
       <c r="L166" s="22" t="n">
         <v>69.84197</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>77.81319000000001</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>115.942</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>56297.61753</v>
@@ -7898,35 +8150,40 @@
         <v>49354.78482</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>49902.41398999999</v>
+        <v>49904.22398999999</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>49940.36792999999</v>
+        <v>49952.64499</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>51185.70948</v>
+        <v>51187.51948</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>51394.27574</v>
+        <v>51422.59613</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>51428.88225</v>
+        <v>51488.82687</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>51805.09507</v>
+        <v>51805.09507000001</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>51860.07556</v>
+        <v>51860.15511</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>51386.13689</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>51402.86516</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>50172.355</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1279.03878</v>
@@ -7941,32 +8198,37 @@
         <v>3034.1362</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>3554.218820000001</v>
+        <v>3554.21882</v>
       </c>
       <c r="H168" s="21" t="n">
         <v>3644.06349</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>4435.33834</v>
+        <v>4461.20951</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>4468.58187</v>
+        <v>4528.52649</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>4589.76173</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>6116.12016</v>
+        <v>6116.739219999999</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>5411.81042</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>5423.99557</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>3046.633</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1043.06962</v>
@@ -7978,16 +8240,16 @@
         <v>2638.46005</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>1984.05599</v>
+        <v>1982.24599</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>2525.64844</v>
+        <v>2513.37138</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>2349.14575</v>
+        <v>2347.33575</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>1931.70852</v>
+        <v>1929.2593</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>1874.1901</v>
@@ -7996,17 +8258,22 @@
         <v>1645.41478</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>3263.74489</v>
+        <v>3264.2844</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>2807.55617</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>2811.18805</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>1662.735</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>25.929</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>25.929</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>2824.26448</v>
@@ -8064,7 +8336,7 @@
         <v>48797.02897</v>
       </c>
       <c r="H171" s="21" t="n">
-        <v>49760.11688999999</v>
+        <v>49760.11689</v>
       </c>
       <c r="I171" s="22" t="n">
         <v>48889.04515</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>48754.35287</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>48754.353</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>53237.38389</v>
@@ -8119,14 +8396,19 @@
         <v>1.60077</v>
       </c>
       <c r="M172" s="22" t="n">
-        <v>1.60077</v>
-      </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+        <v>9.77577</v>
+      </c>
+      <c r="N172" s="22" t="n">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>10757.48071</v>
@@ -8147,7 +8429,7 @@
         <v>6748.29477</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>3538.45055</v>
+        <v>3538.76312</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>10338.61783</v>
@@ -8159,17 +8441,22 @@
         <v>12920.90295</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>11509.25781</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>11517.81223</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>25321.625</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
-        <v>300.24577</v>
+        <v>300.2457699999999</v>
       </c>
       <c r="D174" s="22" t="n">
         <v>2560.71639</v>
@@ -8190,7 +8477,7 @@
         <v>1393.05839</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>4861.397640000001</v>
+        <v>4861.397639999999</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>2107.98124</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>2247.41266</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>9497.482</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>10457.23494</v>
@@ -8224,13 +8516,13 @@
         <v>8200.530269999999</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>5078.953489999999</v>
+        <v>5078.95349</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>2145.39216</v>
+        <v>2145.70473</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>5477.220189999999</v>
+        <v>5477.22019</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>9038.912679999999</v>
@@ -8239,14 +8531,19 @@
         <v>12459.88353</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>9261.845150000001</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>9270.39957</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>15824.143</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>61.41128</v>
@@ -8264,13 +8561,13 @@
         <v>62.49208</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>54.08854</v>
+        <v>56.26426</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>82.52289</v>
+        <v>84.69861999999999</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>92.51951000000001</v>
+        <v>92.51951</v>
       </c>
       <c r="K176" s="23" t="n">
         <v>70.35988</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>46.9234</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>42.194</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>61.39978</v>
@@ -8304,10 +8606,10 @@
         <v>57.18894</v>
       </c>
       <c r="H177" s="21" t="n">
-        <v>54.08854</v>
+        <v>56.26426</v>
       </c>
       <c r="I177" s="22" t="n">
-        <v>82.52289</v>
+        <v>84.69861999999999</v>
       </c>
       <c r="J177" s="21" t="n">
         <v>86.44674000000001</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>43.52042</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>39.193</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.0115</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>2.7</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0.70298</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>30815.14874</v>
@@ -8507,26 +8834,31 @@
         <v>33755.88918</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>38094.73899</v>
+        <v>38094.73899000001</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>48195.24759</v>
+        <v>48180.32824</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>47791.13289</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>33625.64581</v>
+        <v>33625.64580999999</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>49402.90500999999</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>49442.90500999999</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>65343.997</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>25356.08821</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>29606.19229</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>37369.036</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>25010.42371</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>29606.19229</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>37369.036</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>352.68674</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>7.022240000000001</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>805.66895</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>181.08165</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>278.608</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>805.66895</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>29.082</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>43.132</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>151.99965</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>235.476</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>3031.32105</v>
@@ -9098,19 +9500,19 @@
         <v>7616.28488</v>
       </c>
       <c r="F197" s="33" t="n">
-        <v>7076.41583</v>
+        <v>7076.415829999999</v>
       </c>
       <c r="G197" s="23" t="n">
         <v>5716.172</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>8481.022940000001</v>
+        <v>8481.022939999999</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>15086.26968</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>19500.90925</v>
+        <v>19485.9899</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>18776.39938</v>
@@ -9119,14 +9521,19 @@
         <v>10343.34825</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>16256.64842</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>16296.64842</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>18107.036</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2240.26516</v>
@@ -9141,7 +9548,7 @@
         <v>2903.91661</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>5413.23706</v>
+        <v>5413.237059999999</v>
       </c>
       <c r="H198" s="21" t="n">
         <v>5891.10958</v>
@@ -9150,23 +9557,28 @@
         <v>6202.162939999999</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>6011.337050000001</v>
+        <v>5996.4177</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>6520.562619999999</v>
+        <v>6520.56262</v>
       </c>
       <c r="L198" s="22" t="n">
         <v>8246.32466</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>10985.75272</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>11025.75272</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>12209.346</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>3677.383</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>790.5805799999999</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>4654.53043</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>1469.53</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0.47531</v>
@@ -9353,7 +9785,7 @@
         <v>11017.89295</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>9095.806780000001</v>
+        <v>9095.806779999999</v>
       </c>
       <c r="L203" s="22" t="n">
         <v>1505.65777</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>616.36527</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>750.777</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>663.2210200000001</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>1560.599</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>663.2210200000001</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>1560.599</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>125.17098</v>
@@ -9507,13 +9959,13 @@
         <v>486.36437</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>690.81409</v>
+        <v>690.8140900000001</v>
       </c>
       <c r="J207" s="33" t="n">
         <v>594.12184</v>
       </c>
       <c r="K207" s="23" t="n">
-        <v>665.33452</v>
+        <v>665.3345199999999</v>
       </c>
       <c r="L207" s="23" t="n">
         <v>813.5591899999999</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>1126.43153</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>1408.65</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>125.17098</v>
@@ -9547,13 +10004,13 @@
         <v>486.36437</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>690.81409</v>
+        <v>690.8140900000001</v>
       </c>
       <c r="J208" s="21" t="n">
         <v>594.12184</v>
       </c>
       <c r="K208" s="22" t="n">
-        <v>665.33452</v>
+        <v>665.3345199999999</v>
       </c>
       <c r="L208" s="22" t="n">
         <v>813.5591899999999</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>1126.43153</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>1408.65</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,18 +10063,23 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>125.44271</v>
       </c>
       <c r="D210" s="23" t="n">
-        <v>64.75112999999999</v>
+        <v>64.75113</v>
       </c>
       <c r="E210" s="23" t="n">
         <v>1.90946</v>
@@ -9624,7 +10091,7 @@
         <v>928.66086</v>
       </c>
       <c r="H210" s="33" t="n">
-        <v>8.408509999999998</v>
+        <v>8.40851</v>
       </c>
       <c r="I210" s="23" t="n">
         <v>331.32255</v>
@@ -9641,15 +10108,20 @@
       <c r="M210" s="23" t="n">
         <v>1532.78852</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>6583.207</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
-        <v>71.54868999999999</v>
+        <v>71.54869000000001</v>
       </c>
       <c r="D211" s="22" t="n">
         <v>5.26645</v>
@@ -9664,7 +10136,7 @@
         <v>32.4</v>
       </c>
       <c r="H211" s="21" t="n">
-        <v>7.075480000000001</v>
+        <v>7.07548</v>
       </c>
       <c r="I211" s="22" t="n">
         <v>318.33652</v>
@@ -9681,18 +10153,23 @@
       <c r="M211" s="22" t="n">
         <v>1482.37288</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>6471.315</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>53.89402</v>
       </c>
       <c r="D212" s="22" t="n">
-        <v>59.48467999999999</v>
+        <v>59.48468</v>
       </c>
       <c r="E212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>50.41564</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>111.892</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>1371.45684</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>36.54158</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>36.861</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>1371.45684</v>
@@ -9881,52 +10378,62 @@
       <c r="M216" s="35" t="n">
         <v>36.54158</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>36.861</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
-        <v>76528.30059</v>
+        <v>76528.30058999998</v>
       </c>
       <c r="D217" s="23" t="n">
         <v>83776.61588</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>153071.96515</v>
+        <v>153097.13125</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>169577.85452</v>
+        <v>169775.37166</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>193680.30574</v>
+        <v>193865.64048</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>193487.77217</v>
+        <v>192936.70363</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>219311.33773</v>
+        <v>222302.90321</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>171996.99409</v>
+        <v>175912.22024</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>168616.17167</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>164635.2836</v>
+        <v>164667.11194</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>154408.2032</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>156051.21347</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>160886.122</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>242247.26345</v>
@@ -9935,38 +10442,43 @@
         <v>250164.30891</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>292007.15561</v>
+        <v>292228.638</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>380119.44385</v>
+        <v>380609.3195</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>400653.75499</v>
+        <v>401393.81557</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>405539.80026</v>
+        <v>407200.08576</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>406110.0016</v>
+        <v>408376.08384</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>401039.12632</v>
+        <v>403384.3637</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>401798.83019</v>
+        <v>401798.8301899999</v>
       </c>
       <c r="L218" s="23" t="n">
         <v>374301.4604999999</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>373585.76312</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>379244.67531</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>367244.955</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>190336.95137</v>
@@ -9975,38 +10487,43 @@
         <v>208154.96326</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>254264.06942</v>
+        <v>254334.06942</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>353476.85864</v>
+        <v>353721.85864</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>365262.25463</v>
+        <v>366107.25463</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>370554.1522899999</v>
+        <v>374729.9743300001</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>370456.68866</v>
+        <v>372391.68866</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>360672.29323</v>
+        <v>363222.29323</v>
       </c>
       <c r="K219" s="22" t="n">
-        <v>362494.4482399999</v>
+        <v>362494.44824</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>338441.48215</v>
+        <v>338491.48215</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>338130.12215</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>343015.6821499999</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>334123.328</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>21954.95311</v>
@@ -10021,13 +10538,13 @@
         <v>42515.91901000001</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>30247.09392</v>
+        <v>30687.09392</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>27808.68418</v>
+        <v>30800.75622</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>26514.53965</v>
+        <v>27025.78965</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>19615.86528</v>
@@ -10036,17 +10553,22 @@
         <v>19918.52417</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>18997.55384</v>
+        <v>19047.55384</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>18002.07922</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>18673.74787</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>17936.674</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>73910.90122</v>
@@ -10055,38 +10577,43 @@
         <v>69962.46755</v>
       </c>
       <c r="E221" s="22" t="n">
-        <v>69385.35991</v>
+        <v>69536.84230000002</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>69203.82548</v>
+        <v>69448.70113</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>65909.61146</v>
+        <v>66244.67204</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>63051.50028</v>
+        <v>63528.03578</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>62425.02072</v>
+        <v>63267.35296</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>60257.99364</v>
+        <v>60053.23102000001</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>59498.20139</v>
+        <v>59498.20138999999</v>
       </c>
       <c r="L221" s="22" t="n">
         <v>55297.46053</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>53747.64853</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>55192.66937</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>51348.23</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>45.63603</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>289.92834</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>289.929</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>35488.31563</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>16591.88412</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>14252.478</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>4.572550000000001</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>4.573</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>3.92726</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>3.80411</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>3.804</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>3.32331</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>15.36253</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>15.363</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>35481.06506</v>
@@ -10418,7 +10985,7 @@
         <v>92804.99161</v>
       </c>
       <c r="F230" s="21" t="n">
-        <v>8711.049879999999</v>
+        <v>8711.04988</v>
       </c>
       <c r="G230" s="22" t="n">
         <v>11097.58934</v>
@@ -10433,7 +11000,7 @@
         <v>4872.83663</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>5072.836630000001</v>
+        <v>5072.83663</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>6605.1015</v>
@@ -10441,15 +11008,20 @@
       <c r="M230" s="22" t="n">
         <v>16568.14493</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>14228.738</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
-        <v>7677.97348</v>
+        <v>7677.973480000001</v>
       </c>
       <c r="D231" s="23" t="n">
         <v>7803.636570000001</v>
@@ -10458,19 +11030,19 @@
         <v>4733.54217</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>5328.706460000001</v>
+        <v>5335.913280000001</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>6315.00755</v>
+        <v>6324.42665</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>6232.51418</v>
+        <v>6243.92771</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>23326.30085</v>
+        <v>23355.94951</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>22849.36976</v>
+        <v>22872.15536</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>23283.23119</v>
@@ -10479,14 +11051,19 @@
         <v>23621.06794</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>24030.70692</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>24031.20735</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>48607.543</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>618.66188</v>
@@ -10498,19 +11075,19 @@
         <v>1592.86388</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>2426.02546</v>
+        <v>2426.358540000001</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>3026.58629</v>
+        <v>3029.13165</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>3029.12892</v>
+        <v>3033.66871</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>3425.08031</v>
+        <v>3428.08729</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>3745.9078</v>
+        <v>3782.89082</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>3969.34993</v>
@@ -10519,14 +11096,19 @@
         <v>4810.29705</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>5147.48437</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>5147.72766</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>5235.937</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>53.62436</v>
@@ -10559,14 +11141,19 @@
         <v>161.80363</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>161.53043</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>161.56738</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>163.633</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>3536.18427</v>
@@ -10578,35 +11165,40 @@
         <v>2813.73703</v>
       </c>
       <c r="F234" s="21" t="n">
-        <v>2504.09464</v>
+        <v>2510.96838</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>2852.07039</v>
+        <v>2858.94413</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>2931.185</v>
+        <v>2938.05874</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>4873.12299</v>
+        <v>4899.76467</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>6398.775710000001</v>
+        <v>6384.57829</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>6599.89386</v>
+        <v>6599.893859999999</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>3226.44572</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>5118.07507</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>5118.29235</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>5092.112</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>27.24178</v>
@@ -10641,15 +11233,20 @@
       <c r="M235" s="22" t="n">
         <v>25.14586</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>27.407</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
-        <v>3442.261190000001</v>
+        <v>3442.26119</v>
       </c>
       <c r="D236" s="22" t="n">
         <v>3392.645860000001</v>
@@ -10661,7 +11258,7 @@
         <v>258.54044</v>
       </c>
       <c r="G236" s="22" t="n">
-        <v>259.0677900000001</v>
+        <v>259.06779</v>
       </c>
       <c r="H236" s="21" t="n">
         <v>94.61667</v>
@@ -10679,14 +11276,19 @@
         <v>15397.37568</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>13578.47119</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>13578.4741</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>38088.454</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>27735.94823</v>
@@ -10695,38 +11297,43 @@
         <v>34769.94086</v>
       </c>
       <c r="E237" s="23" t="n">
-        <v>38895.74716</v>
+        <v>38898.89396</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>54816.62862</v>
+        <v>54854.76856</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>65520.83943000001</v>
+        <v>65616.19142</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>75232.41325999999</v>
+        <v>75423.61106</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>84524.27329</v>
+        <v>88695.32287999999</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>103895.64623</v>
+        <v>104856.89906</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>125924.0399</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>130954.13811</v>
+        <v>130956.10188</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>150806.17498</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>151667.31045</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>165237.008</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-201449.41548</v>
@@ -10735,38 +11342,43 @@
         <v>-223119.49471</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-261041.47179</v>
+        <v>-261241.68012</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-260302.0865</v>
+        <v>-260652.47587</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-274978.73497</v>
+        <v>-275509.6502</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-288245.88996</v>
+        <v>-290253.5730200001</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-296127.98286</v>
+        <v>-299712.36845</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-330118.43995</v>
+        <v>-329843.24075</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-380582.89279</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-348821.46655</v>
+        <v>-348821.5461</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-384229.01478</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-387624.97547</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-407751.454</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-35171.78472</v>
@@ -10775,38 +11387,43 @@
         <v>-18412.83622</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-14339.18337</v>
+        <v>-14338.43813</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>-19108.93126</v>
+        <v>-19096.24716</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-14937.80792</v>
+        <v>-15066.38962</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-8252.030289999997</v>
+        <v>-8658.312599999997</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-30467.6311</v>
+        <v>-30358.46052</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-30567.92538</v>
+        <v>-30257.17424</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>-6906.25393</v>
+        <v>-6906.253930000002</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-22051.39838</v>
+        <v>-22021.45426</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-26377.31116</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-27858.88829</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-26704.408</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>9320.68237</v>
@@ -10815,38 +11432,43 @@
         <v>13261.45045</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>21555.29014</v>
+        <v>21556.03538</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>20239.02943</v>
+        <v>20251.71353</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>21238.44699</v>
+        <v>21247.54108</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>35319.76166</v>
+        <v>35324.96307</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>27079.70135</v>
+        <v>27528.03365</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>27560.15301</v>
+        <v>27799.8201</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>26221.39307</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>28530.55685</v>
+        <v>28560.50097</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>26740.48063</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>26805.33268</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>17338.757</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>44492.46709000001</v>
@@ -10861,69 +11483,77 @@
         <v>39347.96069</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>36176.25491</v>
+        <v>36313.9307</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>43571.79195000001</v>
+        <v>43983.27567</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>57547.33245</v>
+        <v>57886.49417000001</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>58128.07839</v>
+        <v>58056.99434</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>33127.647</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>50581.95523</v>
+        <v>50581.95523000001</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>53117.79179</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>54664.22097</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>44043.165</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>401381.87139</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>404696.6853899999</v>
+        <v>404696.6853900001</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>393523.7357899999</v>
+        <v>393562.28652</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>467771.06456</v>
+        <v>468149.05084</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>560227.2935599999</v>
+        <v>560743.5115</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>578008.28629</v>
+        <v>578898.8003</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>607476.1890499999</v>
+        <v>620933.6582199999</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>579572.02112</v>
+        <v>585266.5809600001</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>618911.1579499999</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>623469.8449</v>
+        <v>623543.8042100001</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>657742.38481</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>662162.1050099999</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>693200.974</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>774</v>
@@ -10951,19 +11584,19 @@
         <v>808</v>
       </c>
       <c r="E244" s="52" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>859</v>
@@ -10972,14 +11605,17 @@
         <v>848</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>832</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>848</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>828</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>